--- a/patient_data/patient_17.xlsx
+++ b/patient_data/patient_17.xlsx
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1182,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1750,19 +1750,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
